--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H2">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I2">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J2">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.90640435113001</v>
+        <v>106.5625623333333</v>
       </c>
       <c r="N2">
-        <v>81.90640435113001</v>
+        <v>319.687687</v>
       </c>
       <c r="O2">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="P2">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="Q2">
-        <v>21612.55548318542</v>
+        <v>156.804892347378</v>
       </c>
       <c r="R2">
-        <v>21612.55548318542</v>
+        <v>1411.244031126402</v>
       </c>
       <c r="S2">
-        <v>0.3361984836194568</v>
+        <v>0.002163257143866095</v>
       </c>
       <c r="T2">
-        <v>0.3361984836194568</v>
+        <v>0.002163257143866095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H3">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I3">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J3">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>102.124381961226</v>
+        <v>102.9000496666667</v>
       </c>
       <c r="N3">
-        <v>102.124381961226</v>
+        <v>308.700149</v>
       </c>
       <c r="O3">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="P3">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="Q3">
-        <v>26947.45165299845</v>
+        <v>151.415570883606</v>
       </c>
       <c r="R3">
-        <v>26947.45165299845</v>
+        <v>1362.740137952454</v>
       </c>
       <c r="S3">
-        <v>0.4191865413692123</v>
+        <v>0.00208890686064108</v>
       </c>
       <c r="T3">
-        <v>0.4191865413692123</v>
+        <v>0.002088906860641079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H4">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I4">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J4">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.9846792787556</v>
+        <v>34.20111066666666</v>
       </c>
       <c r="N4">
-        <v>33.9846792787556</v>
+        <v>102.603332</v>
       </c>
       <c r="O4">
-        <v>0.1558819654679633</v>
+        <v>0.1403619311581067</v>
       </c>
       <c r="P4">
-        <v>0.1558819654679633</v>
+        <v>0.1403619311581067</v>
       </c>
       <c r="Q4">
-        <v>8967.501043527789</v>
+        <v>50.326318726008</v>
       </c>
       <c r="R4">
-        <v>8967.501043527789</v>
+        <v>452.9368685340719</v>
       </c>
       <c r="S4">
-        <v>0.1394957785087239</v>
+        <v>0.0006942944628751521</v>
       </c>
       <c r="T4">
-        <v>0.1394957785087239</v>
+        <v>0.000694294462875152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.9959606472072</v>
+        <v>264.7713316666666</v>
       </c>
       <c r="H5">
-        <v>30.9959606472072</v>
+        <v>794.313995</v>
       </c>
       <c r="I5">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348598</v>
       </c>
       <c r="J5">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348596</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.90640435113001</v>
+        <v>106.5625623333333</v>
       </c>
       <c r="N5">
-        <v>81.90640435113001</v>
+        <v>319.687687</v>
       </c>
       <c r="O5">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="P5">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="Q5">
-        <v>2538.767686021866</v>
+        <v>28214.71153480884</v>
       </c>
       <c r="R5">
-        <v>2538.767686021866</v>
+        <v>253932.4038132796</v>
       </c>
       <c r="S5">
-        <v>0.03949231487070907</v>
+        <v>0.3892459946631056</v>
       </c>
       <c r="T5">
-        <v>0.03949231487070907</v>
+        <v>0.3892459946631055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.9959606472072</v>
+        <v>264.7713316666666</v>
       </c>
       <c r="H6">
-        <v>30.9959606472072</v>
+        <v>794.313995</v>
       </c>
       <c r="I6">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348598</v>
       </c>
       <c r="J6">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348596</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>102.124381961226</v>
+        <v>102.9000496666667</v>
       </c>
       <c r="N6">
-        <v>102.124381961226</v>
+        <v>308.700149</v>
       </c>
       <c r="O6">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="P6">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="Q6">
-        <v>3165.443324390518</v>
+        <v>27244.98317880947</v>
       </c>
       <c r="R6">
-        <v>3165.443324390518</v>
+        <v>245204.8486092853</v>
       </c>
       <c r="S6">
-        <v>0.04924069467265849</v>
+        <v>0.3758677654361893</v>
       </c>
       <c r="T6">
-        <v>0.04924069467265849</v>
+        <v>0.3758677654361892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>264.7713316666666</v>
+      </c>
+      <c r="H7">
+        <v>794.313995</v>
+      </c>
+      <c r="I7">
+        <v>0.8900417371348598</v>
+      </c>
+      <c r="J7">
+        <v>0.8900417371348596</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>34.20111066666666</v>
+      </c>
+      <c r="N7">
+        <v>102.603332</v>
+      </c>
+      <c r="O7">
+        <v>0.1403619311581067</v>
+      </c>
+      <c r="P7">
+        <v>0.1403619311581067</v>
+      </c>
+      <c r="Q7">
+        <v>9055.47361569237</v>
+      </c>
+      <c r="R7">
+        <v>81499.26254123134</v>
+      </c>
+      <c r="S7">
+        <v>0.1249279770355649</v>
+      </c>
+      <c r="T7">
+        <v>0.1249279770355649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.239114</v>
+      </c>
+      <c r="H8">
+        <v>93.717342</v>
+      </c>
+      <c r="I8">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J8">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>106.5625623333333</v>
+      </c>
+      <c r="N8">
+        <v>319.687687</v>
+      </c>
+      <c r="O8">
+        <v>0.4373345410925676</v>
+      </c>
+      <c r="P8">
+        <v>0.4373345410925676</v>
+      </c>
+      <c r="Q8">
+        <v>3328.920032863106</v>
+      </c>
+      <c r="R8">
+        <v>29960.28029576795</v>
+      </c>
+      <c r="S8">
+        <v>0.04592528928559599</v>
+      </c>
+      <c r="T8">
+        <v>0.04592528928559597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>30.9959606472072</v>
-      </c>
-      <c r="H7">
-        <v>30.9959606472072</v>
-      </c>
-      <c r="I7">
-        <v>0.105119196502607</v>
-      </c>
-      <c r="J7">
-        <v>0.105119196502607</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>33.9846792787556</v>
-      </c>
-      <c r="N7">
-        <v>33.9846792787556</v>
-      </c>
-      <c r="O7">
-        <v>0.1558819654679633</v>
-      </c>
-      <c r="P7">
-        <v>0.1558819654679633</v>
-      </c>
-      <c r="Q7">
-        <v>1053.387781532266</v>
-      </c>
-      <c r="R7">
-        <v>1053.387781532266</v>
-      </c>
-      <c r="S7">
-        <v>0.01638618695923943</v>
-      </c>
-      <c r="T7">
-        <v>0.01638618695923943</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.239114</v>
+      </c>
+      <c r="H9">
+        <v>93.717342</v>
+      </c>
+      <c r="I9">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J9">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>102.9000496666667</v>
+      </c>
+      <c r="N9">
+        <v>308.700149</v>
+      </c>
+      <c r="O9">
+        <v>0.4223035277493257</v>
+      </c>
+      <c r="P9">
+        <v>0.4223035277493257</v>
+      </c>
+      <c r="Q9">
+        <v>3214.506382142662</v>
+      </c>
+      <c r="R9">
+        <v>28930.55743928396</v>
+      </c>
+      <c r="S9">
+        <v>0.04434685545249538</v>
+      </c>
+      <c r="T9">
+        <v>0.04434685545249537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>31.239114</v>
+      </c>
+      <c r="H10">
+        <v>93.717342</v>
+      </c>
+      <c r="I10">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J10">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>34.20111066666666</v>
+      </c>
+      <c r="N10">
+        <v>102.603332</v>
+      </c>
+      <c r="O10">
+        <v>0.1403619311581067</v>
+      </c>
+      <c r="P10">
+        <v>0.1403619311581067</v>
+      </c>
+      <c r="Q10">
+        <v>1068.412395042616</v>
+      </c>
+      <c r="R10">
+        <v>9615.711555383543</v>
+      </c>
+      <c r="S10">
+        <v>0.01473965965966668</v>
+      </c>
+      <c r="T10">
+        <v>0.01473965965966668</v>
       </c>
     </row>
   </sheetData>
